--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr4_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr4_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.64453125" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.77734375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26163800752150412</v>
+        <v>0.19453243892083816</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.24621092101343325</v>
+        <v>0.25614714246057269</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0010405495322194183</v>
+        <v>0.00072863431194951963</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00022846154747447922</v>
+        <v>0.00099207090997436415</v>
       </c>
       <c r="F3" s="0">
-        <v>0.001163049621896696</v>
+        <v>-0.0001343652788438679</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00024890729272648279</v>
+        <v>0.00063524561232872689</v>
       </c>
       <c r="H3" s="0">
-        <v>7.2503824614144751e-06</v>
+        <v>-7.480431668907172e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-4.9005564613734905e-05</v>
+        <v>-0.00046280605566136355</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00037944798806655022</v>
+        <v>-0.00047170149079100998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31728180753629098</v>
+        <v>0.3110260838382391</v>
       </c>
       <c r="C4" s="0">
-        <v>0.015155082992870319</v>
+        <v>0.040070426296224218</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.5147771269502271e-06</v>
+        <v>-8.3617729564361298e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00016412987661545628</v>
+        <v>-1.490992572603138e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.1390883970969675e-05</v>
+        <v>0.00012064226663808732</v>
       </c>
       <c r="I4" s="0">
-        <v>-2.8738432286756875e-05</v>
+        <v>-0.0087502047124025633</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00049168452548774754</v>
+        <v>0.0025363668788354332</v>
       </c>
       <c r="K4" s="0">
-        <v>5.8755629013557131e-05</v>
+        <v>-6.0375720833838464e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.3817956945354759</v>
+        <v>0.30794307504700436</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0057594419987090995</v>
+        <v>-0.00064889452771484471</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00044523647599554246</v>
+        <v>1.6665468506536254e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0013002140211902326</v>
+        <v>0.0071358579926211335</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00023786897739446549</v>
+        <v>-0.0015648006627433163</v>
       </c>
       <c r="H5" s="0">
-        <v>4.2463856717161592e-05</v>
+        <v>0.00066085543953165371</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00069235770636778132</v>
+        <v>-0.00079303136428770951</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.013308168006668508</v>
+        <v>-0.011257684745037855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.32496745272144889</v>
+        <v>0.3316983548611655</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.011086504336770931</v>
+        <v>-0.01773461821504857</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>2.606359198589062e-05</v>
+        <v>-0.00021478259595248021</v>
       </c>
       <c r="F6" s="0">
-        <v>-7.8685498216930341e-05</v>
+        <v>0.00042812033183026968</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.0001267425145003135</v>
+        <v>0.00056165252309212511</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0011305656968693303</v>
+        <v>-0.0062917667795795214</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-2.0393941183360909e-05</v>
+        <v>0.00018810843477501393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.26731103872190465</v>
+        <v>0.24825101149903989</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0040649085440152381</v>
+        <v>-0.0184257860329703</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0015495543970211439</v>
+        <v>-0.0030530078896552231</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0013449622440269578</v>
+        <v>0.0071358999548796981</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00010692684989005806</v>
+        <v>0.0028458481366997338</v>
       </c>
       <c r="H7" s="0">
-        <v>-4.6787038235214892e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-6.889277289756579e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.015756311713543081</v>
+        <v>0.01048649352055564</v>
       </c>
     </row>
     <row r="8">
